--- a/СберМегаМаркет.xlsx
+++ b/СберМегаМаркет.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -470,12 +466,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>natalyst88</t>
+          <t>Elmira Sab</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Было предложено получить бесплатную про версию на неделю. Получила, поняла что мне не нужно, но! Через неделю списалась сумма 1199 рублей . При чем без подтверждения код пароля!!! Может я не внимательна и плохо прочитала соглашение, и юридически вы правы, но считаю ваши действия мошенническими!!!</t>
+          <t>Спасибо разработчикам за данное приложение! Очень удобно и все понятно. Хорошо, что можно искать необходимый товар по категориям! 👍</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,8 +479,10 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>43035.13861111111</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18-4-2019</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -496,12 +494,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>атоалвдчлкд</t>
+          <t>MikeWaz1993</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>С каждым обновлением нужно все больше действий, чтобы добавить продукты. Совсем неудобно. Долго терпела эти нововведения, но буду искать другое приложение.</t>
+          <t>Привезли заказ в пункт выдачи раньше, чем обещали.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,8 +507,10 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>43835.14092592592</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8-11-2021</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -522,13 +522,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V1V1Vv</t>
+          <t>Натусик34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Пользовалась данным приложение около 2-х лет. Покупала подписку на год, но особо лично для себя разницы не ощутила в сравнении с бесплатной версией. Добавляются дополнительно измерения тела(которые в домашних условиях просто не слелаешь) и рецепты, почти все на английском языке, что тоже не особо удобно. Но в общем очень удобное приложение БЫЛО!!!! До тех пор пока не открыла его после очередного обновления и ужаснулась!!! Ребят , что за лажу вы напридумывали???!!!! Раньше можно было отсканировать продукт и добавить за 3 секунды!!! Очень быстро и удобно. Но после обновы эту функцию убрали и добавили голосовой ввод😳😳😳 Нафига???!!! Стало просто раздражать! Говоришь одно-находит другое или вообще не находит ничего! В итоге чтобы добавить 1 батончик я потратила минуты 4 пока нашла! Вобщем уверенна в том, что если не вернут всё как раньше, то многие юзеры этой программы просто сольются на другие программы!!! Я уже точно ищу что-то другое! Перемудрили и испортили программу:((( очень жаль:( Если раньше рекомендовала всем знакомым, то сейчас вообще не советую никому, поберегите нервы!
-P.S. Скан перенесли вниз экрана, но я пробовала сканировать те продукты, которые до этого находились без проблем. Сейчас скан их просто не находит!</t>
+          <t>Сегодня первый раз заказала продукты через СберМегаМаркет.Мне все очень понравилось,продукты привезли согласно заказа,быстро и без всяких проблем.Надеюсь в дальнейшем будет все так же отлично.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -536,11 +535,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>43817.46467592593</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6-11-2021</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -549,12 +550,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Георгиий</t>
+          <t>ирен1970</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Верните развёрнутый список съеденных блюд! Это главная функция к которой обращается много раз в день. Открывать подменю с названием приема пищи вообще не удобно!</t>
+          <t>Еле разобралась, но классный буду пользоваться спасибо !!!</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -562,8 +563,10 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>43715.49335648148</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10-11-2021</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>5</v>
@@ -575,12 +578,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Europe-Asia</t>
+          <t>Мария Glück</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>После 2 месяцев пользования программа начала переносить еду на другие дни или вообще все удалять.</t>
+          <t>Все нравится, цены отличные, закажу в будущем что-то ещё !</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -588,11 +591,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>43031.47678240741</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7-11-2021</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -601,12 +606,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MaxTenifer</t>
+          <t>Зеркалка</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Really need to break down "snacks" into 2-3 meals a day. Please, make it happen! Thnx and keep it up! )</t>
+          <t>Вы просто уделали нос ВТБ с их баллами!!! Отличная площадка для покупок!!! Продолжайте работать и вы станете лучшими!)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -614,8 +619,10 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>43489.71810185185</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20-11-2021</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>5</v>
@@ -627,12 +634,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>winchessy</t>
+          <t>Dinotop678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Невозможно стало создать рецепт! Ингредиенты просто не сохраняются. Ужас</t>
+          <t>Приложение бомба. Интуитивно просто . Сразу можно сравнить цены и выбрать лучшую . Но самое классное , что со всеми плюшками сберовскими, это стало ещё и очень выгодно</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -640,11 +647,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>44236.64924768519</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25-11-2021</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -653,12 +662,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fedsygreen</t>
+          <t>Вера Гудкова</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Не работает приложение на Apple Watch. После ввода через Apple ID выбрасывает.</t>
+          <t>В приложении при выборе товара в корзину его можно положить, затем когда выбираешь пункт доставки оказывается, что товар доступен только в других регионах, но сообщения об этом изначально нет</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -666,11 +675,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>44018.43728009259</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20-11-2021</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -679,13 +690,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dianny Garifulina</t>
+          <t>Lesya-lesya555</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Очень часто при поиске продукта высвечивается много одинаковых позиций, и иногда в них бывают совершенно разные показатели. Вместо того, чтобы просто выбрать нужный продукт, приходится самому сверять состав и искать подходящую позицию. 
-Приложение замечательное, нравится мне гораздо больше, чем Lifesum и Fatsecret, но хотелось бы, чтобы поскорее исправили этот недочет.</t>
+          <t>Оплатили бонусами телевизор, приехали в магазин, а там понравился другой. Оформили возврат, все супер быстро вернули. Огромное спасибо за такой сервис! Приложение огонь ))</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -693,11 +703,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>43995.35148148148</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>19-11-2021</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -706,12 +718,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>makenonoise</t>
+          <t>Gelyia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Установите дневную норму потребления микроэлементов. В данный момент приложение лишь показывает потреблённые микроэлементы, однако не известно процентное соотношение от нормы</t>
+          <t>✅Заказ не доставлен 
+✅Никто не знает, где товар
+✅Операторы говорят мы выясним и сообщим, но далее Вам никто не перезваниваем не пишет и не сообщает где товар и когда привезут, только предлагают перенести доставку, перенесли и бинго!!!😂В перенесенную дату также на Вас кладут огромный болт и соотвественно ничего не доставляют, не курируют где ваш товар что с ним и привезут ли вообще
+✅операторы сберлогистики отдельная тема, проинформировать не могут да и впринципе 2-х слов связать тоже😂
+✅на все заданные мною вопросы оформляют только обращение, которое потом закрывают, как отработанное, и WOW🥳ничего не меняется
+✅Заказ естественно отменён, деньги вернули по максимальным срокам возврата 
+❌❌❌Вообщем это была первая и последняя неудавшаяся покупка на этом базаре.
+⛔️Мой рекомендейшен✋НЕ ТРАТЬТЕ 
+своё время и нервы, купите в другом месте и будет Вам счастье и спокойствие🎈🎈🎈</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -719,11 +739,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>43852.48228009259</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1-6-2021</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -732,12 +754,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Мила С.</t>
+          <t>guzaliyass</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Обновила приложение! Какой ужас! Пользовалась старой версией с удовольствием и всем рекомендовала, а теперь испортили всё! Так измудриться надо было ещё постараться! Жаль, что оплачено годовое обслуживание. Если разработчики не примут мер, то буду искать что - нибудь другое, так как этим пользоваться не возможно!</t>
+          <t>Удобно для онлайн покупок: начисляются бонусные рубли, есть возможность списать бонусы Спасибо от Сбербанк.
+Спасибо!</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -745,11 +768,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>43715.62193287037</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23-11-2021</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -758,12 +783,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>melisa127</t>
+          <t>svettishe</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Добавьте пожалуйста в создании рецептов вес готового блюда. Со скидкой на термическую обработку программа неправильно считает.</t>
+          <t>Спасибо Что вы есть</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -771,8 +796,10 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>43938.73043981481</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10-11-2021</t>
+        </is>
       </c>
       <c r="F13" t="n">
         <v>5</v>
@@ -784,12 +811,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sutulaya sobaka</t>
+          <t>Казарян Виктория Валентиновна</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Нет платной подписки которую оформил на год )</t>
+          <t>Есть всё и даже больше! Спасибо за доставку в постамат,это гораздо удобнее курьеров, с которыми ещё надо договариваться о времени и пр. !
+Удобная и приятная бонусная система 👍
+Все нравится 👍</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -797,11 +826,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>44531.24856481481</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25-11-2021</t>
+        </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -810,12 +841,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>maryammik</t>
+          <t>yu_ch</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Наобещали, что с подпиской PRO и витамины, и нутриенты, получаемые из продуктов, подсчитывать будут. Как итог, вместо показателей просто прочерки. Все колонки пустуют. Писала в поддержку, сказали, что, к сожалению, они не могут вести подсчёт витаминов. Вопрос: зачем тогда было говорить обратное?  А ещё мне написали, чтоб я внесла своё предложение по обновлению. Ребят, серьезно? Я изначально оформляла подписку на год, чтобы получать полную картинку, подробный анализ. Само приложение очень хорошее, но подписка бесполезна. Не повторяйте моих ошибок и используйте только бесплатную версию!</t>
+          <t>Все чего касается сбер превращается в гoвнo :(</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -823,11 +854,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>44299.40950231482</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27-4-2021</t>
+        </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -836,14 +869,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MarikaFos</t>
+          <t>Bartfcsm</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Очень довольна приложением. Была. Пользовалась месяц бесплатной версией, сегодня обновила и перешла на подписку - бум! Перестали считаться калории за пройденные шаги.
-Вопрос разработчикам - почему и как исправить?
-Действительно удобное приложение, была от него в восторге, все ещё довольна, но вот эта маленькая неприятность портит впечатление</t>
+          <t>Я редко пишу отзывы, но моя чаща терпения переполнена! 
+Goods - был отличным маркетплейсом, почти все доставки во время, очень редко товары задерживалось, ещё реже отменялись! Более 100 заказов с двух аккаунтов за все время, почти никаких нареканий.
+Пришёл СБЕР и все испортил, постоянные отмены заказов или частичная отмена позиций из заказа, постоянные просрочки если дело доходит до доставки! 
+Последний случай меня добил окончательно, думаю это последний заказ в СберМегаМаркете!
+4 июня был оформлен заказ #913523032, доставка должна была произойти 9 июня, в итоге я обратился в поддержку, они ответили с задержкой в 8 часов, что доставка будет до 12 июня и в заказе есть отмена некоторых позиций, ну ладно подумал я, подожду ещё 3 дня, но не тут то было, 12 июня никто ничего не прислал, не написал, я сам повторно обратился в саппорт и что в итоге? Они отвечают, что «никакой новой информации нет и заказ находится у Логистов под контролем», а дальше-больше, до 14 июня со мною никто не связывался, а к вечеру я обратил внимание, что в приложении мой заказ полностью отменён, на мои вопросы, саппорт ответил, что заказ был утерян, но конечно со мною никто не связался! Обидно, не правда? В наше время из Китая товары за 10-14 дней приходят.
+Далее веселее! Мне подарили целых 200 баллов за всю эту ситуацию, плюс за отмену заказа вернулись баллы, я не хотел, чтобы они сгорали и произвёл ещё один заказ #941100573 - доставка на 19 июня, а дальше все очень похоже на прошлый заказ, опять никто не писал/звонил, на мой сегодняшний вопрос саппорт отвечает стандартно, что дата доставки смещается до 23 июня, а далее наверное будет отказ заказа!
+Итого: 
+1. Сбер убил goods!
+2. Саппорт пишет полную чушь и реально не знает, что происходит с доставкой
+3. СБЕР ЛОГИСТАКА - это самый ужасный доставщик в Москве! 
+4. Шутка! Мой попугай и рыбки видимо скоро умрут от голода, т.к. с 4 июня не могут получить корм со СберМегаМаркете!</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -851,11 +892,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>44062.43282407407</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20-6-2021</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -864,12 +907,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MarinaMaxinova</t>
+          <t>anasta83</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Программа очень помогает следить за количеством съеденного а соответственно за фигурой !))</t>
+          <t>С Праздником коллеги! Так держать, 5 баллов!</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -877,8 +920,10 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>43038.31515046296</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>19-11-2021</t>
+        </is>
       </c>
       <c r="F17" t="n">
         <v>5</v>
@@ -890,12 +935,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>дарья19032004</t>
+          <t>One_Redaction</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>До обновления приложение было гораздо лучше, а теперь хочется удалить...</t>
+          <t>В целом приложение отлично себя показало, быстро, понятно, удобно. В сравнение могу привести озон, куда надобавляли всяких вкладок ненужных и реклам. Хотелось бы видеть промики, не только на первый заказ, но и на последующие, это отличительная черта, от всех остальных торговых площадок ( где надо покупать карты и подписки, чтобы выжать хотя бы один промик, даже те самые быллы, которые фиг получишь). Конечно хотелось бы видеть больше магазинов, но это дело времени. В общем и целом рекомендую данное приложение! Лагов, багов, вылетов не заметил, все четко!
+Разрабам спасибо!</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -903,11 +949,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n">
-        <v>43729.66165509259</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23-11-2021</t>
+        </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -916,12 +964,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rinqqq</t>
+          <t>Elena Ermilova</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ну и зачем нужно было так изуродовать интерфейс? Глаза режет. Почему нельзя сделать откат к прошлому интерфейсу, который намного приятнее.</t>
+          <t>Отличное, просто и понятное приложение))))</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -929,11 +977,13 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>43722.62864583333</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21-11-2021</t>
+        </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -942,16 +992,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mkrllv</t>
+          <t>Elmurza</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Уважаемые разработчики! 
-После обновления приложение стало абсолютно неудобным. Не понимаю смысла дизайна ради дизайна. 
-Теперь нельзя увидеть целиком весь список продуктов, который был в течении дня, нужно заходить в каждую категорию и там смотреть. Я забиваю свою норму калорий, а она каждый день изменяется почему-то. Из-за этого постоянная неразбериха и нужно следить за цифрами самостоятельно, чтобы придерживаться своей нормы. А теперь ещё и ввод количества продуктов замудрили! Мне легче пару цифр ввести, чем листать предложенные категории. Зачем?! 
-Выбирала это приложение, потому что оно было максимально простым, понятным, удобным и рациональным! 
-Сейчас все с точностью до наоборот.</t>
+          <t>Вы открываете поиск, пишите ключевое слово, фильтрируете запрос, находите интересный вам товар, кликаете, и хотите вернуться назад чтобы открыть другой товар, но не тут то было вас кидает на главную страницу, то-есть все заново надо начинать, опять поиск и опять настройка фильтра,  «люди которые пользуются продуктами сбера должны страдать и мучаться» это лозунг засел в головах всех сотрудников кажется</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -959,8 +1005,10 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E20" s="2" t="n">
-        <v>43776.30909722222</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2-7-2021</t>
+        </is>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -972,12 +1020,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kazantim</t>
+          <t>Artezzz</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Сделайте разовый премиум за адекватную цену</t>
+          <t>Приложение лучшее среди маркетплейсов по навигации и использованию.
+При этом сервис оставляет желать лучшего.
+Было 2 негативных ситуации:
+1) С курьером из логистики. Заказ не был доставлен в обозначенный день. Претензия была создана и отправдена, при этом с пометкой, что я хотел бы получить личную обратную связь. В итоге пришла только автоматическая отписка. Именно отписка с общими фразами: «да-да, мы предприняли все возможное», лично так никто и не связался. 
+2) заказывал шины на 50 000 рублей, заплатил онлайн, в итоге только через 5 дней, в день доставки, узнаю, что заказ отменен. Деньги будут возвращены еще через 7 дней. Получается, снег уже идет, деньги на 2 недели подвисли, а связь есть только с оператором колл центра. Претензию отправили, с просьбой лично со мной связаться, сомневаюсь, что просьба будет исполнена.
+Итог текузего моего общения: претензии не обрабатываются должным образом, сервис хренового качества. Жду обратной связи по второму обращению (номер заказа 912515286) и РЕАЛЬНЫХ действий.
+Дополняю отзыв:
+1) На обращение по номеру заказа 912515286 от 08.10.2019 так и нет никакой обратной связи по состоянию на 18.10.2019. Единственный позитивный момент - деньги вернулись достаточно оперативно, в течение 3 дней.
+2) Оформил еще один более простой заказ 13.10.2019 с доставкой 18.10.2019. И снова та же проблема: 5 дней заказ висел со статусом «подтвержден продавцом», и только в день доставки я узнаю, что доставка будет перенесена. Это просто самый худший клиентский сервис из всех, что я встречал...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -985,8 +1041,10 @@
           <t>apple</t>
         </is>
       </c>
-      <c r="E21" s="2" t="n">
-        <v>44803.2196412037</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>18-10-2019</t>
+        </is>
       </c>
       <c r="F21" t="n">
         <v>1</v>

--- a/СберМегаМаркет.xlsx
+++ b/СберМегаМаркет.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Radx Rodossky</t>
+          <t>ZET MOTO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Не могу подключиться к приложению говорит о ошибке...</t>
+          <t>Ужасное приложение , даже не смогла зайти в него , вылетает окно обновить либо найдите интернет, интернет работает и он есть , крутил час так толку ноль , что за обновление неизвестно, само оно не требует обновления , запрашивает интернет, который РАБОТАЕТ...ВЕДЬ КАК ТО ВАМ Я ПИШУ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,18 +482,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Надя Бондаренко</t>
+          <t>Kitana MalDoran</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Отвратительно.. Приложение не работает постоянно выдаёт ошибку..</t>
+          <t>Делала два заказа, на третий раз, вроде ок, заказала оплатила, слежу за заказом и вдруг - что-то пошло не так. Захожу через браузер - там вообще доступ к сайту временно ограничен!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,18 +507,18 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Юлия Аринохина</t>
+          <t>Екатерина Муравьёва</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>После обновления приложение не работает!!!</t>
+          <t>Не открывается после обновлерия</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,12 +538,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Екатерина Попова</t>
+          <t>азиз умаров</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Самое ужасное приложение по доставке продуктов.При оформлении заказа на ближайшее время вам даётся определённый интервал. Однако обозначенное время доставки не соблюдается. Когда с момента оформления заказа у меня прошёл 1ч15 мин, я захожу в приложение и вижу что мой заказ будет доставлен ещё через 1ч20 мин и он даже не собран. Девушка оператор сказала, что время доставки изменилось из-за нагрузки. Но как оно могло измениться уже после оформления заказа? То есть ждать нужно 2ч30мин. Абсурд.</t>
+          <t>Хуже приложения я ещё не встречал</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -563,12 +563,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>levapro</t>
+          <t>Tundra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Добрый день! Нам не привезли мороженое. До курьера дозвониться не могу.</t>
+          <t>Сделала заказ. Вышла из приложения. Чтобы зайти снова, пишет, проверьте интернет. С интернетом проблем нет. Провайдер никаких проблем с сетью не видет. Но, вот именно с данным приложением беда. Удалила, скачала заново, тоже самое. Войти не возможно!!!!!! Это был первый и последний раз, когда воспользовалась!!!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -582,18 +582,18 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ксения Сергеевна Лисафина</t>
+          <t>Александра Гараева</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Все работало хорошо, но в последнее время приложение не открывается, пробовала обновить и все равно ничего не меняется.</t>
+          <t>Приложение падает с ошибкой при запуске :(</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -607,18 +607,18 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Oleg Krotov</t>
+          <t>Екатерина Серегина</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Скидки на продукты сбрасываются, после нажатия "Оформить заказ". Все сайты и сервисы уже давно принимают карточки с истекшим сроком действия, но только не Сбер. Сервис доставки банка не может отключить валидацию срока действия. Браво. Это приложение летит в мусор.</t>
+          <t>Установила, не работает.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Юлия Ушакова</t>
+          <t>Максим Тупиков</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>В сентябре не могу сделать заказ, все время висит при переходе в корзину и выдает ошибку.Если каким то чудом перешла в корзину, то виснет при оплате.Приходится прльзоваться другими интернет-магазинами.Очень жаль.</t>
+          <t>Приложение перестало работать.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -663,12 +663,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Антон Кузнецов</t>
+          <t>Алёна Дементьева</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Худший сервис. Ладно приложение неудобное. Так ещё и деньги после отмены заказа не возвращают :)</t>
+          <t>Ужасное обновление, не могу больше зайти. Очень разочарованна.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -688,12 +688,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Светлана Крутикова</t>
+          <t>Екатерина Кондрашкина</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Очень дорогая доставка и достали рассылкой смс сообщений</t>
+          <t>Пишет, что не работает интернет и не открывается</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -713,12 +713,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Olga Ya.</t>
+          <t>Vladislav Volkhin</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Приложение вылетает каждый раз, когда заходишь в любимые товары.</t>
+          <t>Руки оторвать разрабам. Горите в аду, рукожопые.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -732,18 +732,18 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Полина Верещака</t>
+          <t>Константин А</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Что-то пошло не так " больше ничего. Раз 20 скачивала и ничего. Раньше хорошое было приложение.</t>
+          <t>Ещё вчера работало. На старой версии. Сегодня не работает ни старая ни обновлённая</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -763,12 +763,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Вячеслав Шаламов</t>
+          <t>Наталия Наливайская</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Сервис ПРОТУХ... Не доставили якобы из-за того, что вес 90кг..., но ранее подсчёт веса был в самом приложении. Спрашивается зачем удалили функционал, если это влияет на сервис. А сейчас кроме жуткого негатива - эмоций нет. ПОКА СБЕРМАРКЕТ- переходим на другие сервисы.</t>
+          <t>Не могу зайти в приложение несколько дней, нажимаю обновить и на этом все</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -782,18 +782,18 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Петр Баланов</t>
+          <t>Архистрат Архистрат</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Программа работает, но со временем доставки вводит в заблуждение! Скажем, вместо 90 минут, доставка в реальности будет 240 минут и более. Не один раз с этим сталкивался. Могут и, вообще, заказ отменить. Однозначно, к удалению!</t>
+          <t>Не грузится, слетает. Развод к карте Мир и тарифу за 3990 на год. По факту один гемморой.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -813,12 +813,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Виктория К.</t>
+          <t>Анна «Фея Абсента» Тригуб</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ранее приложение радовало. Были рабочие промокоды, скорость доставки удивляла и свежесть продуктов. Сейчас, сделаешь заказ, ждешь по 3 часа, хотя заявлено 60-80 минут, не устраивает, просят отменить или перенести на другой день доставку. За сегодня уже дважды доставили испорченный продукт. В качестве извинений промокод на 50 рублей, смешно. Товары в наличии по списку, собирают,нет половины, замену подобрать не могут. Разочарована. Больше нет желания тратить столько времени,нервов на все это.</t>
+          <t>Не могу зайти!!! Пишет: обновите, возможно работает VPN . А у меня нет впн. Что делать?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -828,22 +828,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28-9-2022</t>
+          <t>29-9-2022</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ксения Задорина</t>
+          <t>Анастасия Иванова</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ужасно все стало,зачем убрали оплату ДОЛЯМИ ОТ ТИНЬКОФФ?</t>
+          <t>Отвратительно работает,постоянно висит,долго набираешь заказ, затем все вылетает, начинаешь заново набирать,оплатить нереально,магазины закрываются к тому времени, когда оно отвиснет наконец</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -853,22 +853,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-9-2022</t>
+          <t>29-9-2022</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>masyanya12341</t>
+          <t>Александра Мусаелян</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Приложение подтормаживает очень сильно.Жаль,что убрали отзывы о продуктах, очень удобно было. Прочитал отзывы, заказал. А теперь "русская рулетка ".</t>
+          <t>После заказа не могу зайти в приложение, в чем проблема?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -878,22 +878,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28-9-2022</t>
+          <t>29-9-2022</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Карина Патронова</t>
+          <t>Иван Меркурьев</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ужасно. Сотрудники знают,что у них нехватка работников и ничего с этим не делают. Время доставки было в 18:24, затем они сказали что заказ будет в 19:24,но следом последовала информация,что заказ будет в 20:16,когда я дождусь заказа и вообще ли дождусь , неизвестно</t>
+          <t>Не работает выдаёт ошибку</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>28-9-2022</t>
+          <t>29-9-2022</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -913,12 +913,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Елисей</t>
+          <t>Алинка Казак</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>У вас приложение лагает, выбираю самовывоз, захожу в корзину и экран начинает дёргаться весь, невозможно нормально нажать что-то</t>
+          <t>Целый день не могу войти в приложение. Обновлений нет. И простоянно просит включить интернет, он естественно включен, но толку ноль.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -928,22 +928,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28-9-2022</t>
+          <t>29-9-2022</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Дмитрий Федоров</t>
+          <t>Denis Romashev</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Отвратительно. Сделали заказ привезли не то что заказывали и возврат не хотят оформлять, + к тому товар ниже стоимостью привезли, обманывают и дурачат людей.</t>
+          <t>Заказы иногда очень поздно доходят до исполнителя, приложение перестало работать впринципе, как пришло уведомление о возможности бесплатной доставки</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -953,11 +953,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>28-9-2022</t>
+          <t>29-9-2022</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
